--- a/data/case1/13/Plm2_13.xlsx
+++ b/data/case1/13/Plm2_13.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.054810311522246025</v>
+        <v>-0.02080121282546088</v>
       </c>
       <c r="B1" s="0">
-        <v>0.054756929985842362</v>
+        <v>0.020769208692158259</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0086511660864800888</v>
+        <v>0.0274867939465544</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0084872592724600793</v>
+        <v>-0.027702376910264448</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.094440484120639212</v>
+        <v>0.13062804871822919</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.094653426359261772</v>
+        <v>-0.13103475602143178</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.18933227997903757</v>
+        <v>-0.15295002207086839</v>
       </c>
       <c r="B4" s="0">
-        <v>0.18847818720781717</v>
+        <v>0.15238838180301428</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.18247818828435136</v>
+        <v>-0.1463883826931589</v>
       </c>
       <c r="B5" s="0">
-        <v>0.18075387486522576</v>
+        <v>0.14527243770483</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.090016207006517135</v>
+        <v>-0.049229453972952086</v>
       </c>
       <c r="B6" s="0">
-        <v>0.089918740031850852</v>
+        <v>0.049200610167135395</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.069918741308498511</v>
+        <v>-0.02920061122884654</v>
       </c>
       <c r="B7" s="0">
-        <v>0.069687383521024771</v>
+        <v>0.029161621827936912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.049687384808114743</v>
+        <v>-0.0091616228934734423</v>
       </c>
       <c r="B8" s="0">
-        <v>0.049483472767918535</v>
+        <v>0.0091378156264765309</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.043483473909029513</v>
+        <v>-0.0031378165494979626</v>
       </c>
       <c r="B9" s="0">
-        <v>0.043307685872369106</v>
+        <v>0.0031138033113640162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.037307687023542258</v>
+        <v>0.0028861957648089742</v>
       </c>
       <c r="B10" s="0">
-        <v>0.037286648562925961</v>
+        <v>-0.0028855518268500191</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0013654591551706119</v>
+        <v>0.0073855509184674872</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0013649856336712674</v>
+        <v>-0.007396728263810104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0046350132146324441</v>
+        <v>-0.074578058519509938</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0046473849883725826</v>
+        <v>0.074055802554104488</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.010647383837961044</v>
+        <v>-0.068055803501035683</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.010652439525633994</v>
+        <v>0.067892031880574244</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.022652438308623957</v>
+        <v>-0.055892032897072674</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.022670957351049736</v>
+        <v>0.055763153095154117</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.028670956204342346</v>
+        <v>-0.049763154055975534</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.028710076359181436</v>
+        <v>0.04962905994780975</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.034710075216849656</v>
+        <v>-0.015026058353548422</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.034812718178035329</v>
+        <v>0.015003807062009322</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.040812717046235569</v>
+        <v>-0.0090038080335990145</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.040892313955629866</v>
+        <v>0.0089999989967237681</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.03610576500900109</v>
+        <v>-0.038256003569525632</v>
       </c>
       <c r="B18" s="0">
-        <v>0.03609549301745929</v>
+        <v>0.038245279217154149</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027095494116613938</v>
+        <v>-0.029245280138309848</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027012666168095389</v>
+        <v>0.029164761032025144</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018012667276341432</v>
+        <v>-0.01801284919202395</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004131021891467</v>
+        <v>0.018004144316890347</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.009004132131382292</v>
+        <v>-0.0090041452474975969</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999988898288308</v>
+        <v>0.0089999990686502329</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093927744493258913</v>
+        <v>-0.093925672726953735</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093621890774555183</v>
+        <v>0.093620451275262084</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084621891883483791</v>
+        <v>-0.084620452201149554</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084124050856723365</v>
+        <v>0.084123770382761975</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042124052354291841</v>
+        <v>-0.042123771664473786</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998495103164</v>
+        <v>0.041999998711357733</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.084737668973914992</v>
+        <v>-0.090042984647382696</v>
       </c>
       <c r="B25" s="0">
-        <v>0.08465003659451753</v>
+        <v>0.089943948341133506</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.078650037711764043</v>
+        <v>-0.083943949259747797</v>
       </c>
       <c r="B26" s="0">
-        <v>0.078540751530077557</v>
+        <v>0.083819488147916843</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.072540752652033191</v>
+        <v>-0.077819489070630077</v>
       </c>
       <c r="B27" s="0">
-        <v>0.072177535601491094</v>
+        <v>0.077405678593447824</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.066177536741934162</v>
+        <v>-0.071405679534485067</v>
       </c>
       <c r="B28" s="0">
-        <v>0.065947021978942644</v>
+        <v>0.071139601951500708</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.053947023199119926</v>
+        <v>-0.059139602966679305</v>
       </c>
       <c r="B29" s="0">
-        <v>0.053852309708375401</v>
+        <v>0.059026081616801562</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.033852311024321846</v>
+        <v>-0.039026082720456046</v>
       </c>
       <c r="B30" s="0">
-        <v>0.033528536098789807</v>
+        <v>0.03867829590085714</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.018528537366417908</v>
+        <v>-0.035690404934687336</v>
       </c>
       <c r="B31" s="0">
-        <v>0.018424443506944499</v>
+        <v>0.035665321323333998</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060005498311541672</v>
+        <v>-0.0060005686515998136</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999988326362441</v>
+        <v>0.00599999903044246</v>
       </c>
     </row>
   </sheetData>
